--- a/Group 2 -  206CDE Weekly Status Report.xlsx
+++ b/Group 2 -  206CDE Weekly Status Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="456" windowWidth="24084" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Example " sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="52">
   <si>
     <t>member 2</t>
   </si>
@@ -163,12 +163,24 @@
   </si>
   <si>
     <t>Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realtime Chat </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Start developing Realtime Chat protortype</t>
+  </si>
+  <si>
+    <t>Realtime chat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,9 +342,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -342,23 +362,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,35 +677,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:F105"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="33.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -707,7 +719,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -715,11 +727,11 @@
       <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -729,7 +741,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="9" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
@@ -747,7 +759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -758,10 +770,14 @@
       <c r="D6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="E6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
@@ -774,10 +790,14 @@
       <c r="D7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="E7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
@@ -790,10 +810,14 @@
       <c r="D8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="E8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
@@ -809,9 +833,11 @@
       <c r="E9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="F9" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
@@ -822,10 +848,14 @@
       <c r="D10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="E10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
@@ -838,10 +868,14 @@
       <c r="D11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -853,17 +887,17 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -877,7 +911,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -885,11 +919,11 @@
       <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -897,7 +931,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
         <v>5</v>
@@ -915,7 +949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
@@ -926,10 +960,14 @@
       <c r="D19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
@@ -940,10 +978,14 @@
       <c r="D20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
@@ -956,10 +998,14 @@
       <c r="D21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>2</v>
       </c>
@@ -975,9 +1021,11 @@
       <c r="E22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="F22" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>3</v>
       </c>
@@ -988,10 +1036,14 @@
       <c r="D23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>4</v>
       </c>
@@ -1004,20 +1056,24 @@
       <c r="D24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="14" t="s">
+      <c r="E24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -1031,7 +1087,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>9</v>
       </c>
@@ -1039,11 +1095,11 @@
       <c r="C29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1051,7 +1107,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
         <v>5</v>
@@ -1069,7 +1125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>11</v>
       </c>
@@ -1083,7 +1139,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1153,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
@@ -1113,7 +1169,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>2</v>
       </c>
@@ -1129,9 +1185,11 @@
       <c r="E35" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="F35" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1142,10 +1200,14 @@
       <c r="D36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E36" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>4</v>
       </c>
@@ -1158,20 +1220,24 @@
       <c r="D37" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="14" t="s">
+      <c r="E37" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+    </row>
+    <row r="41" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1251,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>9</v>
       </c>
@@ -1193,11 +1259,11 @@
       <c r="C42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1205,7 +1271,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
         <v>5</v>
@@ -1223,7 +1289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1303,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1319,7 @@
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>1</v>
       </c>
@@ -1269,7 +1335,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>2</v>
       </c>
@@ -1287,7 +1353,7 @@
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>3</v>
       </c>
@@ -1298,10 +1364,14 @@
       <c r="D49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E49" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>4</v>
       </c>
@@ -1314,20 +1384,24 @@
       <c r="D50" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="14" t="s">
+      <c r="E50" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-    </row>
-    <row r="55" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+    </row>
+    <row r="55" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>8</v>
       </c>
@@ -1341,7 +1415,7 @@
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>9</v>
       </c>
@@ -1349,11 +1423,11 @@
       <c r="C56" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="23"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1361,7 +1435,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
         <v>5</v>
@@ -1379,7 +1453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>11</v>
       </c>
@@ -1393,7 +1467,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1483,7 @@
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>1</v>
       </c>
@@ -1425,7 +1499,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>2</v>
       </c>
@@ -1443,7 +1517,7 @@
       </c>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>3</v>
       </c>
@@ -1454,10 +1528,14 @@
       <c r="D63" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E63" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>4</v>
       </c>
@@ -1470,20 +1548,24 @@
       <c r="D64" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="14" t="s">
+      <c r="E64" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A67" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+    </row>
+    <row r="68" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>8</v>
       </c>
@@ -1497,7 +1579,7 @@
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -1505,11 +1587,11 @@
       <c r="C69" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="17"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D69" s="21"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="23"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -1517,7 +1599,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
         <v>5</v>
@@ -1535,7 +1617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>11</v>
       </c>
@@ -1547,7 +1629,7 @@
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1645,7 @@
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>1</v>
       </c>
@@ -1577,7 +1659,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>2</v>
       </c>
@@ -1597,7 +1679,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>3</v>
       </c>
@@ -1605,11 +1687,17 @@
       <c r="C76" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="D76" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>4</v>
       </c>
@@ -1620,20 +1708,22 @@
         <v>47</v>
       </c>
       <c r="D77" s="11"/>
-      <c r="E77" s="10"/>
+      <c r="E77" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="14" t="s">
+    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A79" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-    </row>
-    <row r="80" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+    </row>
+    <row r="80" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>8</v>
       </c>
@@ -1647,7 +1737,7 @@
       </c>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>9</v>
       </c>
@@ -1655,11 +1745,11 @@
       <c r="C81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="15"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="17"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D81" s="21"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="23"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -1667,7 +1757,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
         <v>5</v>
@@ -1685,7 +1775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>11</v>
       </c>
@@ -1697,7 +1787,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1803,7 @@
       </c>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>1</v>
       </c>
@@ -1727,7 +1817,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>2</v>
       </c>
@@ -1747,7 +1837,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>3</v>
       </c>
@@ -1755,11 +1845,17 @@
       <c r="C88" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D88" s="11"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-    </row>
-    <row r="89" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="D88" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>4</v>
       </c>
@@ -1770,20 +1866,24 @@
         <v>47</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-    </row>
-    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="14" t="s">
+      <c r="E89" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A92" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-    </row>
-    <row r="93" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+    </row>
+    <row r="93" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>8</v>
       </c>
@@ -1797,7 +1897,7 @@
       </c>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>9</v>
       </c>
@@ -1805,11 +1905,11 @@
       <c r="C94" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="15"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="17"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D94" s="21"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="23"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1817,7 +1917,7 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="8" t="s">
         <v>5</v>
@@ -1835,7 +1935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>11</v>
       </c>
@@ -1847,7 +1947,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>0</v>
       </c>
@@ -1861,7 +1961,7 @@
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>1</v>
       </c>
@@ -1875,7 +1975,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>2</v>
       </c>
@@ -1895,7 +1995,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>3</v>
       </c>
@@ -1903,11 +2003,17 @@
       <c r="C101" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D101" s="11"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-    </row>
-    <row r="102" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="D101" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>4</v>
       </c>
@@ -1921,17 +2027,17 @@
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
     </row>
-    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="14" t="s">
+    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A105" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-    </row>
-    <row r="106" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+    </row>
+    <row r="106" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>8</v>
       </c>
@@ -1945,7 +2051,7 @@
       </c>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>9</v>
       </c>
@@ -1953,11 +2059,11 @@
       <c r="C107" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D107" s="15"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="17"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D107" s="21"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="23"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -1965,7 +2071,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" s="8" t="s">
         <v>5</v>
@@ -1983,7 +2089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>11</v>
       </c>
@@ -1995,7 +2101,7 @@
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>0</v>
       </c>
@@ -2009,7 +2115,7 @@
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>1</v>
       </c>
@@ -2023,7 +2129,7 @@
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>2</v>
       </c>
@@ -2043,7 +2149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>3</v>
       </c>
@@ -2051,11 +2157,17 @@
       <c r="C114" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D114" s="11"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-    </row>
-    <row r="115" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="D114" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>4</v>
       </c>
@@ -2069,124 +2181,124 @@
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
     </row>
-    <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="18"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-    </row>
-    <row r="119" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A119" s="20"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="21"/>
-    </row>
-    <row r="120" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A120" s="21"/>
-      <c r="B120" s="21"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="23"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
-    </row>
-    <row r="122" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A122" s="24"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="25"/>
-    </row>
-    <row r="123" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A123" s="26"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="26"/>
-    </row>
-    <row r="124" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A124" s="26"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="26"/>
-      <c r="F124" s="26"/>
-    </row>
-    <row r="125" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A125" s="26"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="26"/>
-      <c r="F125" s="26"/>
-    </row>
-    <row r="126" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A126" s="26"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="26"/>
-    </row>
-    <row r="127" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A127" s="26"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="26"/>
-    </row>
-    <row r="128" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A128" s="26"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="26"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="23"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="23"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23"/>
+    <row r="118" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+    </row>
+    <row r="119" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A119" s="15"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+    </row>
+    <row r="120" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A120" s="16"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="26"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="17"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+    </row>
+    <row r="122" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A122" s="18"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+    </row>
+    <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A123" s="20"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+    </row>
+    <row r="124" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A124" s="20"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+    </row>
+    <row r="125" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="20"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+    </row>
+    <row r="126" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A126" s="20"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+    </row>
+    <row r="127" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A127" s="20"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+    </row>
+    <row r="128" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A128" s="20"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="17"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="A92:F92"/>
     <mergeCell ref="D94:F94"/>
     <mergeCell ref="A105:F105"/>
     <mergeCell ref="D107:F107"/>
     <mergeCell ref="A118:F118"/>
     <mergeCell ref="D120:F120"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Group 2 -  206CDE Weekly Status Report.xlsx
+++ b/Group 2 -  206CDE Weekly Status Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4404"/>
   </bookViews>
   <sheets>
     <sheet name="Example " sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="58">
   <si>
     <t>member 2</t>
   </si>
@@ -175,6 +175,24 @@
   </si>
   <si>
     <t>Realtime chat</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>El-Eter</t>
+  </si>
+  <si>
+    <t>CuGUIDE</t>
+  </si>
+  <si>
+    <t>dr rachid anane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google maps activity </t>
   </si>
 </sst>
 </file>
@@ -353,6 +371,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,9 +382,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -677,61 +695,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="33.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="7">
+        <v>8</v>
+      </c>
       <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -741,7 +767,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="9" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
@@ -759,11 +785,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -777,7 +805,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
@@ -797,7 +825,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
@@ -817,7 +845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
@@ -837,7 +865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
@@ -855,7 +883,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
@@ -875,7 +903,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -887,17 +915,17 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -911,7 +939,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -919,11 +947,11 @@
       <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -931,7 +959,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
         <v>5</v>
@@ -949,11 +977,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="C19" s="11" t="s">
         <v>16</v>
       </c>
@@ -967,7 +997,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
@@ -985,7 +1015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
@@ -1005,7 +1035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>2</v>
       </c>
@@ -1025,7 +1055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>3</v>
       </c>
@@ -1043,7 +1073,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>4</v>
       </c>
@@ -1057,23 +1087,23 @@
         <v>35</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="24" t="s">
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -1087,7 +1117,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>9</v>
       </c>
@@ -1095,11 +1125,11 @@
       <c r="C29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1107,7 +1137,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="54" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
         <v>5</v>
@@ -1125,21 +1155,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="C32" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1189,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
@@ -1169,7 +1205,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1207,7 +1243,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>4</v>
       </c>
@@ -1221,23 +1257,23 @@
         <v>36</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="24" t="s">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1287,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
         <v>9</v>
       </c>
@@ -1259,11 +1295,11 @@
       <c r="C42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="22"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="24"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1271,7 +1307,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="54" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
         <v>5</v>
@@ -1289,21 +1325,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="11"/>
+      <c r="B45" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="C45" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E45" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1361,7 @@
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>1</v>
       </c>
@@ -1335,7 +1377,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>2</v>
       </c>
@@ -1353,7 +1395,7 @@
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>3</v>
       </c>
@@ -1371,7 +1413,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>4</v>
       </c>
@@ -1391,17 +1433,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="24" t="s">
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-    </row>
-    <row r="55" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A55" s="6" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1457,7 @@
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
         <v>9</v>
       </c>
@@ -1423,11 +1465,11 @@
       <c r="C56" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="23"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="22"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="24"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1435,7 +1477,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="54" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
         <v>5</v>
@@ -1453,7 +1495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>11</v>
       </c>
@@ -1464,10 +1506,14 @@
       <c r="D59" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E59" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1529,7 @@
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>1</v>
       </c>
@@ -1499,7 +1545,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>2</v>
       </c>
@@ -1517,7 +1563,7 @@
       </c>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>3</v>
       </c>
@@ -1535,7 +1581,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>4</v>
       </c>
@@ -1555,17 +1601,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A67" s="24" t="s">
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-    </row>
-    <row r="68" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A68" s="6" t="s">
         <v>8</v>
       </c>
@@ -1579,7 +1625,7 @@
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -1587,11 +1633,11 @@
       <c r="C69" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="22"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="24"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -1599,7 +1645,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="54" x14ac:dyDescent="0.35">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
         <v>5</v>
@@ -1617,7 +1663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
         <v>11</v>
       </c>
@@ -1625,11 +1671,17 @@
       <c r="C72" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D72" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +1697,7 @@
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
         <v>1</v>
       </c>
@@ -1659,7 +1711,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>2</v>
       </c>
@@ -1679,7 +1731,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>3</v>
       </c>
@@ -1697,7 +1749,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>4</v>
       </c>
@@ -1713,17 +1765,17 @@
       </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A79" s="24" t="s">
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-    </row>
-    <row r="80" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A80" s="6" t="s">
         <v>8</v>
       </c>
@@ -1737,7 +1789,7 @@
       </c>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A81" s="7" t="s">
         <v>9</v>
       </c>
@@ -1745,11 +1797,11 @@
       <c r="C81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="23"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="22"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="24"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -1757,7 +1809,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="54" x14ac:dyDescent="0.35">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
         <v>5</v>
@@ -1775,7 +1827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
         <v>11</v>
       </c>
@@ -1783,11 +1835,17 @@
       <c r="C84" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-    </row>
-    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D84" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
         <v>0</v>
       </c>
@@ -1803,7 +1861,7 @@
       </c>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
         <v>1</v>
       </c>
@@ -1817,7 +1875,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>2</v>
       </c>
@@ -1837,7 +1895,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
         <v>3</v>
       </c>
@@ -1855,7 +1913,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>4</v>
       </c>
@@ -1873,17 +1931,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A92" s="24" t="s">
+    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-    </row>
-    <row r="93" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+    </row>
+    <row r="93" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A93" s="6" t="s">
         <v>8</v>
       </c>
@@ -1897,7 +1955,7 @@
       </c>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A94" s="7" t="s">
         <v>9</v>
       </c>
@@ -1905,11 +1963,11 @@
       <c r="C94" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="21"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="23"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D94" s="22"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="24"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1917,7 +1975,7 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="54" x14ac:dyDescent="0.35">
       <c r="A96" s="8"/>
       <c r="B96" s="8" t="s">
         <v>5</v>
@@ -1935,7 +1993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
         <v>11</v>
       </c>
@@ -1943,11 +2001,17 @@
       <c r="C97" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D97" s="11"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-    </row>
-    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D97" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
         <v>0</v>
       </c>
@@ -1961,7 +2025,7 @@
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +2039,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
         <v>2</v>
       </c>
@@ -1995,7 +2059,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
         <v>3</v>
       </c>
@@ -2013,7 +2077,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>4</v>
       </c>
@@ -2027,17 +2091,17 @@
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
     </row>
-    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A105" s="24" t="s">
+    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-    </row>
-    <row r="106" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+    </row>
+    <row r="106" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A106" s="6" t="s">
         <v>8</v>
       </c>
@@ -2051,7 +2115,7 @@
       </c>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A107" s="7" t="s">
         <v>9</v>
       </c>
@@ -2059,11 +2123,11 @@
       <c r="C107" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D107" s="21"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="23"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D107" s="22"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="24"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -2071,7 +2135,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="54" x14ac:dyDescent="0.35">
       <c r="A109" s="8"/>
       <c r="B109" s="8" t="s">
         <v>5</v>
@@ -2089,7 +2153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
         <v>11</v>
       </c>
@@ -2097,11 +2161,17 @@
       <c r="C110" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D110" s="11"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-    </row>
-    <row r="111" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D110" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +2185,7 @@
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
         <v>1</v>
       </c>
@@ -2129,7 +2199,7 @@
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
         <v>2</v>
       </c>
@@ -2149,7 +2219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
         <v>3</v>
       </c>
@@ -2167,7 +2237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
         <v>4</v>
       </c>
@@ -2181,7 +2251,7 @@
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
     </row>
-    <row r="118" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="25"/>
@@ -2189,7 +2259,7 @@
       <c r="E118" s="25"/>
       <c r="F118" s="25"/>
     </row>
-    <row r="119" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A119" s="15"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -2197,7 +2267,7 @@
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
     </row>
-    <row r="120" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
@@ -2205,7 +2275,7 @@
       <c r="E120" s="26"/>
       <c r="F120" s="26"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
@@ -2213,7 +2283,7 @@
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
     </row>
-    <row r="122" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A122" s="18"/>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
@@ -2221,7 +2291,7 @@
       <c r="E122" s="19"/>
       <c r="F122" s="19"/>
     </row>
-    <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A123" s="20"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -2229,7 +2299,7 @@
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
     </row>
-    <row r="124" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A124" s="20"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -2237,7 +2307,7 @@
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
     </row>
-    <row r="125" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A125" s="20"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -2245,7 +2315,7 @@
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
     </row>
-    <row r="126" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A126" s="20"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -2253,7 +2323,7 @@
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
     </row>
-    <row r="127" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A127" s="20"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -2261,7 +2331,7 @@
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
     </row>
-    <row r="128" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A128" s="20"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -2269,7 +2339,7 @@
       <c r="E128" s="20"/>
       <c r="F128" s="20"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
@@ -2279,26 +2349,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="D56:F56"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="A27:F27"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="D120:F120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Group 2 -  206CDE Weekly Status Report.xlsx
+++ b/Group 2 -  206CDE Weekly Status Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4404"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Example " sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="58">
   <si>
     <t>member 2</t>
   </si>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,9 +371,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,6 +379,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -695,35 +695,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="B115" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="33.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.625" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.5" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -741,7 +741,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -751,13 +751,13 @@
       <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -767,7 +767,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="9" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
@@ -785,7 +785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -805,7 +805,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
@@ -825,7 +825,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
@@ -845,7 +845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
@@ -865,7 +865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
@@ -903,7 +903,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -915,17 +915,17 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -939,7 +939,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -947,11 +947,11 @@
       <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -959,7 +959,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
         <v>5</v>
@@ -977,7 +977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
@@ -997,7 +997,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>4</v>
       </c>
@@ -1093,17 +1093,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="21" t="s">
+    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>9</v>
       </c>
@@ -1125,11 +1125,11 @@
       <c r="C29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1137,7 +1137,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
         <v>5</v>
@@ -1155,7 +1155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>11</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>0</v>
       </c>
@@ -1186,10 +1186,14 @@
       <c r="D33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
@@ -1205,7 +1209,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>2</v>
       </c>
@@ -1225,7 +1229,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>4</v>
       </c>
@@ -1263,17 +1267,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="21" t="s">
+    <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+    </row>
+    <row r="41" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
@@ -1287,7 +1291,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>9</v>
       </c>
@@ -1295,11 +1299,11 @@
       <c r="C42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1307,7 +1311,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
         <v>5</v>
@@ -1325,7 +1329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>11</v>
       </c>
@@ -1345,7 +1349,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>0</v>
       </c>
@@ -1357,11 +1361,13 @@
         <v>37</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>1</v>
       </c>
@@ -1377,7 +1383,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>2</v>
       </c>
@@ -1395,7 +1401,7 @@
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>3</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>4</v>
       </c>
@@ -1433,17 +1439,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="21" t="s">
+    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+    </row>
+    <row r="55" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>8</v>
       </c>
@@ -1457,7 +1463,7 @@
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>9</v>
       </c>
@@ -1465,11 +1471,11 @@
       <c r="C56" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="24"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="23"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1477,7 +1483,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
         <v>5</v>
@@ -1495,7 +1501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>11</v>
       </c>
@@ -1513,7 +1519,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>0</v>
       </c>
@@ -1525,11 +1531,13 @@
         <v>38</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>1</v>
       </c>
@@ -1545,7 +1553,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>2</v>
       </c>
@@ -1563,7 +1571,7 @@
       </c>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>3</v>
       </c>
@@ -1581,7 +1589,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>4</v>
       </c>
@@ -1601,17 +1609,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="21" t="s">
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A67" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+    </row>
+    <row r="68" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>8</v>
       </c>
@@ -1625,7 +1633,7 @@
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -1633,11 +1641,11 @@
       <c r="C69" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="24"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D69" s="21"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="23"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -1645,7 +1653,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
         <v>5</v>
@@ -1663,7 +1671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>11</v>
       </c>
@@ -1681,7 +1689,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>0</v>
       </c>
@@ -1693,11 +1701,13 @@
         <v>43</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>1</v>
       </c>
@@ -1711,7 +1721,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>2</v>
       </c>
@@ -1731,7 +1741,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>3</v>
       </c>
@@ -1749,7 +1759,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>4</v>
       </c>
@@ -1765,17 +1775,17 @@
       </c>
       <c r="F77" s="10"/>
     </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="21" t="s">
+    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A79" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+    </row>
+    <row r="80" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>8</v>
       </c>
@@ -1789,7 +1799,7 @@
       </c>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>9</v>
       </c>
@@ -1797,11 +1807,11 @@
       <c r="C81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="24"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D81" s="21"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="23"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -1809,7 +1819,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
         <v>5</v>
@@ -1827,7 +1837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>11</v>
       </c>
@@ -1845,7 +1855,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>0</v>
       </c>
@@ -1859,9 +1869,11 @@
       <c r="E85" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F85" s="10"/>
-    </row>
-    <row r="86" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="F85" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>1</v>
       </c>
@@ -1875,7 +1887,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>2</v>
       </c>
@@ -1895,7 +1907,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>3</v>
       </c>
@@ -1913,7 +1925,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>4</v>
       </c>
@@ -1931,17 +1943,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="21" t="s">
+    <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A92" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
-    </row>
-    <row r="93" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+    </row>
+    <row r="93" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>8</v>
       </c>
@@ -1955,7 +1967,7 @@
       </c>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>9</v>
       </c>
@@ -1963,11 +1975,11 @@
       <c r="C94" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="22"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="24"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D94" s="21"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="23"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1975,7 +1987,7 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="8" t="s">
         <v>5</v>
@@ -1993,7 +2005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>11</v>
       </c>
@@ -2011,7 +2023,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>0</v>
       </c>
@@ -2022,10 +2034,14 @@
       <c r="D98" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E98" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>1</v>
       </c>
@@ -2039,7 +2055,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>2</v>
       </c>
@@ -2059,7 +2075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>3</v>
       </c>
@@ -2077,7 +2093,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>4</v>
       </c>
@@ -2091,17 +2107,17 @@
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
     </row>
-    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="21" t="s">
+    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A105" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-    </row>
-    <row r="106" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+    </row>
+    <row r="106" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>8</v>
       </c>
@@ -2115,7 +2131,7 @@
       </c>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>9</v>
       </c>
@@ -2123,11 +2139,11 @@
       <c r="C107" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D107" s="22"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="24"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D107" s="21"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="23"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -2135,7 +2151,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" s="8" t="s">
         <v>5</v>
@@ -2153,7 +2169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>11</v>
       </c>
@@ -2171,7 +2187,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>0</v>
       </c>
@@ -2182,10 +2198,14 @@
       <c r="D111" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-    </row>
-    <row r="112" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E111" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>1</v>
       </c>
@@ -2199,7 +2219,7 @@
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>2</v>
       </c>
@@ -2219,7 +2239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>3</v>
       </c>
@@ -2237,7 +2257,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>4</v>
       </c>
@@ -2251,7 +2271,7 @@
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
     </row>
-    <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="25"/>
@@ -2259,7 +2279,7 @@
       <c r="E118" s="25"/>
       <c r="F118" s="25"/>
     </row>
-    <row r="119" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A119" s="15"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -2267,7 +2287,7 @@
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
     </row>
-    <row r="120" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
@@ -2275,7 +2295,7 @@
       <c r="E120" s="26"/>
       <c r="F120" s="26"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
@@ -2283,7 +2303,7 @@
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
     </row>
-    <row r="122" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="18"/>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
@@ -2291,7 +2311,7 @@
       <c r="E122" s="19"/>
       <c r="F122" s="19"/>
     </row>
-    <row r="123" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="20"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -2299,7 +2319,7 @@
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
     </row>
-    <row r="124" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="20"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -2307,7 +2327,7 @@
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
     </row>
-    <row r="125" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="20"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -2315,7 +2335,7 @@
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
     </row>
-    <row r="126" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="20"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -2323,7 +2343,7 @@
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
     </row>
-    <row r="127" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="20"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -2331,7 +2351,7 @@
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
     </row>
-    <row r="128" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="20"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -2339,7 +2359,7 @@
       <c r="E128" s="20"/>
       <c r="F128" s="20"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
@@ -2349,26 +2369,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="A92:F92"/>
     <mergeCell ref="D94:F94"/>
     <mergeCell ref="A105:F105"/>
     <mergeCell ref="D107:F107"/>
     <mergeCell ref="A118:F118"/>
     <mergeCell ref="D120:F120"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
